--- a/storage/app/contractAndFact/36/2021/Контрактация и факт.xlsx
+++ b/storage/app/contractAndFact/36/2021/Контрактация и факт.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksey.rakhmanov/Desktop/projects/pulsar_project/PulsarDataAggregation/storage/app/contractAndFact/36/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10559C9-D23B-4C4E-A086-8FB356A25176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCFE42-DC2C-B54C-9A27-7F00327CDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16580" windowHeight="12760" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29980" windowHeight="14720" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Реестр контрактов</t>
   </si>
@@ -113,13 +113,37 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>НО № 10</t>
+  </si>
+  <si>
+    <t>НО № 4</t>
+  </si>
+  <si>
+    <t>НО № 5 - ИЦ</t>
+  </si>
+  <si>
+    <t>НО № 7</t>
+  </si>
+  <si>
+    <t>НО № 8</t>
+  </si>
+  <si>
+    <t>НО № 9</t>
+  </si>
+  <si>
+    <t>НО СНИОКР и ИС</t>
+  </si>
+  <si>
+    <t>ОКС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -135,6 +159,11 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF003F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -239,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -268,6 +297,15 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -280,14 +318,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +674,9 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="11.5" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -684,75 +727,75 @@
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14" t="s">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14" t="s">
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14" t="s">
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14" t="s">
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="12"/>
       <c r="AF7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="101" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
@@ -836,18 +879,18 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="5">
         <v>2565491.31</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
+      <c r="G9" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -926,18 +969,18 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="5">
         <v>630595.83999999997</v>
       </c>
-      <c r="G10" s="5">
-        <v>236302.87</v>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>27856.74</v>
@@ -1016,18 +1059,18 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="5">
         <v>30084.16</v>
       </c>
-      <c r="G11" s="5">
-        <v>22498.46</v>
+      <c r="G11" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="H11" s="5">
         <v>2323.5300000000002</v>
@@ -1106,18 +1149,18 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="5">
         <v>1821454.47</v>
       </c>
-      <c r="G12" s="5">
-        <v>874810.4</v>
+      <c r="G12" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="5">
         <v>127326.99</v>
@@ -1196,18 +1239,18 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5">
         <v>527062.18000000005</v>
       </c>
-      <c r="G13" s="5">
-        <v>163280.98000000001</v>
+      <c r="G13" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="5">
         <v>18486.099999999999</v>
@@ -1286,18 +1329,18 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="5">
         <v>911113.67</v>
       </c>
-      <c r="G14" s="5">
-        <v>56266.75</v>
+      <c r="G14" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="5">
         <v>3173.02</v>
@@ -1376,18 +1419,18 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="5">
         <v>2432.5500000000002</v>
       </c>
-      <c r="G15" s="5">
-        <v>2326.86</v>
+      <c r="G15" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>89.95</v>
@@ -1466,18 +1509,18 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="7">
         <v>9.01</v>
       </c>
-      <c r="G16" s="7">
-        <v>9.01</v>
+      <c r="G16" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1556,13 +1599,13 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="8">
         <v>6488243.1900000004</v>
       </c>
@@ -1647,14 +1690,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="AB7:AC7"/>
@@ -1670,6 +1705,14 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
